--- a/Twin Screw Selection Program.xlsx
+++ b/Twin Screw Selection Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D25ACB9-3735-C047-A181-04063D7DB7DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51220E24-BAC2-AA48-86A9-E3B0A3DE73A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="15600" xr2:uid="{D7BA4155-18E7-4908-B3BA-4C75047B4766}"/>
   </bookViews>
@@ -20,16 +20,10 @@
     <sheet name="Sheet 5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet 6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -172,10 +166,10 @@
     <t>Optional for Intermediate Value, or take direct from sheet 6</t>
   </si>
   <si>
-    <t>Oeff RPM = (RPM / 1500)^1.6</t>
-  </si>
-  <si>
     <t>Pp=(Sheet 2 * Sheet 6 * Sheet 5)</t>
+  </si>
+  <si>
+    <t>Coeff RPM = (RPM / 1500)^1.6</t>
   </si>
 </sst>
 </file>
@@ -586,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BA5813-B897-4769-93C0-0C1F12371CAC}">
   <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -669,7 +663,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -686,7 +680,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -738,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C67C6-4017-4559-BF84-5B2364C41245}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1447,16 +1441,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D20"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="A46"/>
@@ -1471,6 +1455,16 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1481,7 +1475,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1581,7 +1575,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1692,9 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0C8BFA-ACA5-4AE5-8889-EABAA5D5B5D1}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2333,7 +2325,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Twin Screw Selection Program.xlsx
+++ b/Twin Screw Selection Program.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51220E24-BAC2-AA48-86A9-E3B0A3DE73A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA638AE1-2169-9B4B-A1EC-6CC2E90EF99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="15600" xr2:uid="{D7BA4155-18E7-4908-B3BA-4C75047B4766}"/>
+    <workbookView xWindow="9660" yWindow="1660" windowWidth="21100" windowHeight="15600" activeTab="1" xr2:uid="{D7BA4155-18E7-4908-B3BA-4C75047B4766}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Pp</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Coeff RPM = (RPM / 1500)^1.6</t>
+  </si>
+  <si>
+    <t>TW</t>
   </si>
 </sst>
 </file>
@@ -211,18 +214,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,7 +257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BA5813-B897-4769-93C0-0C1F12371CAC}">
   <dimension ref="B3:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
@@ -605,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>15000</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -616,7 +615,7 @@
         <v>17</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -627,7 +626,7 @@
         <v>19</v>
       </c>
       <c r="K6">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -644,7 +643,7 @@
       </c>
       <c r="C11">
         <f>'Sheet 2'!H2*'Sheet 3'!E2*'Sheet 4'!E4</f>
-        <v>58.240000000000009</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -658,7 +657,7 @@
       </c>
       <c r="C13">
         <f>('Sheet 2'!G2*'Sheet 6'!D3/1000)-C11</f>
-        <v>535.76</v>
+        <v>54.870000000000005</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -672,7 +671,7 @@
       </c>
       <c r="C15">
         <f>(K6/1500)^1.6</f>
-        <v>0.32987697769322361</v>
+        <v>7.6146157548635129E-2</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -689,7 +688,7 @@
       </c>
       <c r="C17">
         <f>'Sheet 2'!I2*'Sheet 6'!E3*'Sheet 5'!E2</f>
-        <v>184.08786000000001</v>
+        <v>1.4845764000000001</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -703,7 +702,7 @@
       </c>
       <c r="C19">
         <f>'Sheet 2'!G2*'Sheet 3'!D2*'Sheet 6'!D3/27000</f>
-        <v>264</v>
+        <v>53.93333333333333</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -717,7 +716,7 @@
       </c>
       <c r="C21">
         <f>C19+C17</f>
-        <v>448.08785999999998</v>
+        <v>55.417909733333332</v>
       </c>
     </row>
   </sheetData>
@@ -732,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C67C6-4017-4559-BF84-5B2364C41245}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,6 +756,9 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
@@ -774,14 +776,17 @@
       <c r="E2" s="4">
         <v>2.0129999999999999</v>
       </c>
-      <c r="G2" s="3">
-        <v>792</v>
-      </c>
-      <c r="H2" s="3">
-        <v>80</v>
+      <c r="F2" s="11">
+        <v>11</v>
+      </c>
+      <c r="G2" s="10">
+        <v>485.4</v>
+      </c>
+      <c r="H2" s="10">
+        <v>55</v>
       </c>
       <c r="I2" s="4">
-        <v>67</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -796,6 +801,7 @@
       <c r="E3" s="4">
         <v>2.2650000000000001</v>
       </c>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -809,6 +815,7 @@
       <c r="E4" s="4">
         <v>2.6179999999999999</v>
       </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
@@ -822,6 +829,7 @@
       <c r="E5" s="4">
         <v>3.02</v>
       </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
@@ -838,6 +846,9 @@
       </c>
       <c r="E6" s="4">
         <v>3.3260000000000001</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -852,6 +863,7 @@
       <c r="E7" s="4">
         <v>3.6040000000000001</v>
       </c>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
@@ -865,6 +877,7 @@
       <c r="E8" s="4">
         <v>4.0190000000000001</v>
       </c>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
@@ -878,6 +891,7 @@
       <c r="E9" s="4">
         <v>4.4349999999999996</v>
       </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -894,6 +908,9 @@
       </c>
       <c r="E10" s="4">
         <v>5.0590000000000002</v>
+      </c>
+      <c r="F10" s="11">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -908,6 +925,7 @@
       <c r="E11" s="4">
         <v>5.5819999999999999</v>
       </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
@@ -921,6 +939,7 @@
       <c r="E12" s="4">
         <v>6.1059999999999999</v>
       </c>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -934,6 +953,7 @@
       <c r="E13" s="4">
         <v>6.8040000000000003</v>
       </c>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
@@ -950,6 +970,9 @@
       </c>
       <c r="E14" s="4">
         <v>7.4820000000000002</v>
+      </c>
+      <c r="F14" s="11">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -964,6 +987,7 @@
       <c r="E15" s="4">
         <v>8.3759999999999994</v>
       </c>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -977,8 +1001,9 @@
       <c r="E16" s="4">
         <v>9.3610000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="2">
         <v>92</v>
@@ -990,8 +1015,9 @@
       <c r="E17" s="4">
         <v>10.273999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>150</v>
       </c>
@@ -1007,8 +1033,11 @@
       <c r="E18" s="4">
         <v>11.641999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="2">
         <v>92</v>
@@ -1020,8 +1049,9 @@
       <c r="E19" s="4">
         <v>12.750999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="2">
         <v>102</v>
@@ -1033,8 +1063,9 @@
       <c r="E20" s="4">
         <v>14.137</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>165</v>
       </c>
@@ -1050,8 +1081,11 @@
       <c r="E21" s="4">
         <v>15.362</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="2">
         <v>102</v>
@@ -1063,8 +1097,9 @@
       <c r="E22" s="4">
         <v>17.032</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="2">
         <v>112</v>
@@ -1076,8 +1111,9 @@
       <c r="E23" s="4">
         <v>18.702000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>180</v>
       </c>
@@ -1093,8 +1129,11 @@
       <c r="E24" s="4">
         <v>19.16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="2">
         <v>102</v>
@@ -1106,8 +1145,9 @@
       <c r="E25" s="4">
         <v>20.356999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="2">
         <v>112</v>
@@ -1119,8 +1159,9 @@
       <c r="E26" s="4">
         <v>22.353000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="2">
         <v>122</v>
@@ -1132,8 +1173,9 @@
       <c r="E27" s="4">
         <v>24.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>195</v>
       </c>
@@ -1149,8 +1191,11 @@
       <c r="E28" s="4">
         <v>22.404</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="2">
         <v>102</v>
@@ -1162,8 +1207,9 @@
       <c r="E29" s="4">
         <v>23.803999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="2">
         <v>112</v>
@@ -1175,8 +1221,9 @@
       <c r="E30" s="4">
         <v>26.138000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="2">
         <v>122</v>
@@ -1188,8 +1235,9 @@
       <c r="E31" s="4">
         <v>28.472000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>210</v>
       </c>
@@ -1205,8 +1253,11 @@
       <c r="E32" s="4">
         <v>26.079000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="2">
         <v>102</v>
@@ -1218,8 +1269,9 @@
       <c r="E33" s="4">
         <v>27.709</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="2">
         <v>112</v>
@@ -1231,8 +1283,9 @@
       <c r="E34" s="4">
         <v>30.425999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="2">
         <v>122</v>
@@ -1244,8 +1297,9 @@
       <c r="E35" s="4">
         <v>33.142000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>225</v>
       </c>
@@ -1261,8 +1315,11 @@
       <c r="E36" s="4">
         <v>29.843</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="2">
         <v>102</v>
@@ -1274,8 +1331,9 @@
       <c r="E37" s="4">
         <v>31.707999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="2">
         <v>112</v>
@@ -1287,8 +1345,9 @@
       <c r="E38" s="4">
         <v>34.816000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
       <c r="B39" s="2">
         <v>122</v>
@@ -1300,14 +1359,15 @@
       <c r="E39" s="4">
         <v>37.924999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E41" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>210</v>
       </c>
@@ -1323,8 +1383,14 @@
       <c r="E43" s="4">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="11">
+        <v>31</v>
+      </c>
+      <c r="G43">
+        <v>229.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="3">
         <v>102</v>
@@ -1336,8 +1402,12 @@
       <c r="E44" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="11"/>
+      <c r="G44">
+        <v>229.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>226</v>
       </c>
@@ -1353,8 +1423,14 @@
       <c r="E45" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="10">
+        <v>32</v>
+      </c>
+      <c r="G45" s="10">
+        <v>229.226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>235</v>
       </c>
@@ -1370,8 +1446,14 @@
       <c r="E46" s="4">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="10">
+        <v>33</v>
+      </c>
+      <c r="G46" s="10">
+        <v>229.23500000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>244</v>
       </c>
@@ -1387,8 +1469,14 @@
       <c r="E47" s="4">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="10">
+        <v>34</v>
+      </c>
+      <c r="G47" s="10">
+        <v>229.244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>265</v>
       </c>
@@ -1404,8 +1492,14 @@
       <c r="E48" s="4">
         <v>61.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="10">
+        <v>35</v>
+      </c>
+      <c r="G48" s="10">
+        <v>229.26499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>275</v>
       </c>
@@ -1421,8 +1515,14 @@
       <c r="E49" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="10">
+        <v>36</v>
+      </c>
+      <c r="G49" s="10">
+        <v>229.27500000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>290</v>
       </c>
@@ -1438,9 +1538,36 @@
       <c r="E50" s="4">
         <v>75</v>
       </c>
+      <c r="F50" s="10">
+        <v>37</v>
+      </c>
+      <c r="G50" s="10">
+        <v>229.29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="35">
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="A46"/>
@@ -1455,16 +1582,6 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="D32:D35"/>
     <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1475,7 +1592,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1500,10 +1617,10 @@
         <v>0.35</v>
       </c>
       <c r="D2" s="10">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1.1200000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,7 +1692,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1612,10 +1729,10 @@
         <v>1.65</v>
       </c>
       <c r="D4" s="10">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="E4" s="10">
-        <v>0.65</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,7 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0C8BFA-ACA5-4AE5-8889-EABAA5D5B5D1}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1708,11 +1827,11 @@
       <c r="B2">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D2" s="10">
-        <v>15000</v>
-      </c>
-      <c r="E2" s="10">
-        <v>8.3260000000000005</v>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2325,7 +2444,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2354,10 +2473,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D3" s="10">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E3" s="10">
-        <v>0.33</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
